--- a/7rmartSupermarket/src/main/java/com/obsqura/rmartSupermarket/Resource/TestData.xlsx
+++ b/7rmartSupermarket/src/main/java/com/obsqura/rmartSupermarket/Resource/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\Selenium Eclipse\7rmartSupermarket\src\main\java\com\obsqura\rmartSupermarket\Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\git\7rmartSupermarket\7rmartSupermarket\src\main\java\com\obsqura\rmartSupermarket\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2620A277-08B6-4DE8-B82F-59E74B3B432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869E325B-AA0F-4325-95C4-AF0D2DBABE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="AdminUsersPage" sheetId="3" r:id="rId3"/>
     <sheet name="CategoryPage" sheetId="4" r:id="rId4"/>
     <sheet name="MobileSliderPage" sheetId="5" r:id="rId5"/>
+    <sheet name="ManageProductPage" sheetId="6" r:id="rId6"/>
+    <sheet name="ManageLocationPage" sheetId="7" r:id="rId7"/>
+    <sheet name="ManageOfferCodePage" sheetId="8" r:id="rId8"/>
+    <sheet name="ManageSliderPage" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>validUsername</t>
   </si>
@@ -86,16 +90,117 @@
   </si>
   <si>
     <t>Grocery</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Chicken Biriyani</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>Biriyani</t>
+  </si>
+  <si>
+    <t>weightValue</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>weightUnit</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>maximumQuantity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mrp</t>
+  </si>
+  <si>
+    <t>availableStock</t>
+  </si>
+  <si>
+    <t>purchasePrice</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Kerala Style Chicken Biriyani</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Auckland Road, Bailey Mews, CB5 8DR</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>deliveryCharge</t>
+  </si>
+  <si>
+    <t>offerCode</t>
+  </si>
+  <si>
+    <t>ght547dbety</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Beautiful yellow toy car.</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://7rmartsupermarket/icecream/chocolate</t>
+  </si>
+  <si>
+    <t>https://7rmartsupermarket/icecream/choco</t>
+  </si>
+  <si>
+    <t>editedLink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,13 +223,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37F41FC-C985-4BB3-B8FB-F0D538D39536}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -604,4 +712,253 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30519CBD-F309-4401-8EA6-5AAA3B19DAE3}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C467A55E-AD39-49D6-836F-EC2A10E4F93C}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88B433F-1A81-4E6A-87ED-CAD0B9404FC9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1A14B9-F5E9-42DC-875A-F1B1099B1821}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="43.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{E8BA209D-3CB4-4FFE-9C21-F36850263B17}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{17AFA7FD-6D3D-421F-924A-74934B97594B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7rmartSupermarket/src/main/java/com/obsqura/rmartSupermarket/Resource/TestData.xlsx
+++ b/7rmartSupermarket/src/main/java/com/obsqura/rmartSupermarket/Resource/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\git\7rmartSupermarket\7rmartSupermarket\src\main\java\com\obsqura\rmartSupermarket\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869E325B-AA0F-4325-95C4-AF0D2DBABE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14628A8C-6775-4702-AE56-1EE271932942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="ManageLocationPage" sheetId="7" r:id="rId7"/>
     <sheet name="ManageOfferCodePage" sheetId="8" r:id="rId8"/>
     <sheet name="ManageSliderPage" sheetId="10" r:id="rId9"/>
+    <sheet name="ManageDeliveryBoyPage" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>validUsername</t>
   </si>
@@ -179,10 +180,34 @@
     <t>https://7rmartsupermarket/icecream/chocolate</t>
   </si>
   <si>
-    <t>https://7rmartsupermarket/icecream/choco</t>
-  </si>
-  <si>
-    <t>editedLink</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Athul</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>athul@7rmart.com</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Athul@7rmart</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>athul@7rmart</t>
   </si>
 </sst>
 </file>
@@ -586,6 +611,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671F7409-ED74-4662-8196-633D093E500C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{115CCAED-1C91-41A7-B02B-C8068F2D0963}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{4F89B8CA-888E-45AD-95B8-B294C4BE4746}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{FE54BC5A-A2A0-41AC-959C-D07C5B8B1140}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984F3C2E-396C-4CAA-A93E-CF6EB8947ADE}">
   <dimension ref="A1:B2"/>
@@ -928,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1A14B9-F5E9-42DC-875A-F1B1099B1821}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -943,21 +1040,15 @@
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{E8BA209D-3CB4-4FFE-9C21-F36850263B17}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{17AFA7FD-6D3D-421F-924A-74934B97594B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
